--- a/Rabu/Statistika/Minggu 10 - Korelasi dan Regresi Sederhana/Tugas/2113191079 Isep Lutpi Nur.xlsx
+++ b/Rabu/Statistika/Minggu 10 - Korelasi dan Regresi Sederhana/Tugas/2113191079 Isep Lutpi Nur.xlsx
@@ -9,16 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635"/>
   </bookViews>
   <sheets>
     <sheet name="Tugas no 2" sheetId="7" r:id="rId1"/>
     <sheet name="Tugas no 1" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet8" sheetId="8" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Tugas no 1'!$A$1:$S$40</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tugas no 2'!$A$1:$S$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tugas no 2'!$A$1:$S$44</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -318,8 +317,8 @@
       <xdr:rowOff>129378</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3856903" cy="2612382"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="20" name="TextBox 19"/>
@@ -403,7 +402,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -416,7 +415,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -430,7 +429,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -533,7 +532,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -546,7 +545,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -560,7 +559,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -575,7 +574,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="+mn-lt"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -588,7 +587,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="+mn-lt"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -604,7 +603,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -620,7 +619,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -634,7 +633,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -647,7 +646,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -661,7 +660,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -676,7 +675,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="+mn-lt"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -689,7 +688,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="+mn-lt"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -705,7 +704,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -758,7 +757,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -771,7 +770,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -785,7 +784,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -799,7 +798,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -813,7 +812,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -828,7 +827,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -843,7 +842,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -908,7 +907,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -926,7 +925,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -943,31 +942,7 @@
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
-                              <m:t>187800</m:t>
-                            </m:r>
-                            <m:r>
-                              <a:rPr lang="id-ID" sz="1200" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>−</m:t>
-                            </m:r>
-                            <m:r>
-                              <a:rPr lang="id-ID" sz="1200" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>168100</m:t>
+                              <m:t>187800−168100</m:t>
                             </m:r>
                           </m:e>
                         </m:d>
@@ -977,7 +952,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -991,7 +966,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -1008,31 +983,7 @@
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
-                              <m:t>30155100</m:t>
-                            </m:r>
-                            <m:r>
-                              <a:rPr lang="id-ID" sz="1200" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>−</m:t>
-                            </m:r>
-                            <m:r>
-                              <a:rPr lang="id-ID" sz="1200" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>29648025</m:t>
+                              <m:t>30155100−29648025</m:t>
                             </m:r>
                           </m:e>
                         </m:d>
@@ -1081,7 +1032,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -1094,7 +1045,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -1108,7 +1059,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -1122,7 +1073,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -1136,7 +1087,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -1151,7 +1102,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -1166,7 +1117,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -1207,7 +1158,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -1227,31 +1178,7 @@
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
-                          <m:t>19700</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="id-ID" sz="1200" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>∗</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="id-ID" sz="1200" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>507075</m:t>
+                          <m:t>19700∗507075</m:t>
                         </m:r>
                       </m:den>
                     </m:f>
@@ -1298,7 +1225,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -1311,7 +1238,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -1325,7 +1252,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -1339,7 +1266,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -1353,7 +1280,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -1451,7 +1378,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -1464,7 +1391,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -1478,7 +1405,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -1492,7 +1419,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -1528,7 +1455,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="20" name="TextBox 19"/>
@@ -2349,10 +2276,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>7131</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>20008</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>578631</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>193190</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4693227" cy="803040"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -2364,7 +2291,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="613267" y="7120463"/>
+              <a:off x="578631" y="7917099"/>
               <a:ext cx="4693227" cy="803040"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -2858,7 +2785,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="+mn-lt"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -2874,7 +2801,7 @@
                                               <a:schemeClr val="tx1"/>
                                             </a:solidFill>
                                             <a:effectLst/>
-                                            <a:latin typeface="+mn-lt"/>
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                             <a:ea typeface="+mn-ea"/>
                                             <a:cs typeface="+mn-cs"/>
                                           </a:rPr>
@@ -2890,7 +2817,7 @@
                                               <a:schemeClr val="tx1"/>
                                             </a:solidFill>
                                             <a:effectLst/>
-                                            <a:latin typeface="+mn-lt"/>
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                             <a:ea typeface="+mn-ea"/>
                                             <a:cs typeface="+mn-cs"/>
                                           </a:rPr>
@@ -2902,7 +2829,7 @@
                                               <a:schemeClr val="tx1"/>
                                             </a:solidFill>
                                             <a:effectLst/>
-                                            <a:latin typeface="+mn-lt"/>
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                             <a:ea typeface="+mn-ea"/>
                                             <a:cs typeface="+mn-cs"/>
                                           </a:rPr>
@@ -2916,7 +2843,7 @@
                                               <a:schemeClr val="tx1"/>
                                             </a:solidFill>
                                             <a:effectLst/>
-                                            <a:latin typeface="+mn-lt"/>
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                             <a:ea typeface="+mn-ea"/>
                                             <a:cs typeface="+mn-cs"/>
                                           </a:rPr>
@@ -2932,7 +2859,7 @@
                                                   <a:schemeClr val="tx1"/>
                                                 </a:solidFill>
                                                 <a:effectLst/>
-                                                <a:latin typeface="+mn-lt"/>
+                                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                                 <a:ea typeface="+mn-ea"/>
                                                 <a:cs typeface="+mn-cs"/>
                                               </a:rPr>
@@ -2945,7 +2872,7 @@
                                                   <a:schemeClr val="tx1"/>
                                                 </a:solidFill>
                                                 <a:effectLst/>
-                                                <a:latin typeface="+mn-lt"/>
+                                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                                 <a:ea typeface="+mn-ea"/>
                                                 <a:cs typeface="+mn-cs"/>
                                               </a:rPr>
@@ -2959,7 +2886,7 @@
                                                   <a:schemeClr val="tx1"/>
                                                 </a:solidFill>
                                                 <a:effectLst/>
-                                                <a:latin typeface="+mn-lt"/>
+                                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                                 <a:ea typeface="+mn-ea"/>
                                                 <a:cs typeface="+mn-cs"/>
                                               </a:rPr>
@@ -2991,7 +2918,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -3004,7 +2931,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -3016,7 +2943,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -3031,7 +2958,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -3047,7 +2974,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -3059,7 +2986,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -3073,7 +3000,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -3089,7 +3016,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="+mn-lt"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -3104,7 +3031,7 @@
                                               <a:schemeClr val="tx1"/>
                                             </a:solidFill>
                                             <a:effectLst/>
-                                            <a:latin typeface="+mn-lt"/>
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                             <a:ea typeface="+mn-ea"/>
                                             <a:cs typeface="+mn-cs"/>
                                           </a:rPr>
@@ -3131,7 +3058,7 @@
                                               <a:schemeClr val="tx1"/>
                                             </a:solidFill>
                                             <a:effectLst/>
-                                            <a:latin typeface="+mn-lt"/>
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                             <a:ea typeface="+mn-ea"/>
                                             <a:cs typeface="+mn-cs"/>
                                           </a:rPr>
@@ -3147,7 +3074,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="+mn-lt"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -3163,7 +3090,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -3177,7 +3104,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -3192,7 +3119,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="+mn-lt"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -3208,7 +3135,7 @@
                                               <a:schemeClr val="tx1"/>
                                             </a:solidFill>
                                             <a:effectLst/>
-                                            <a:latin typeface="+mn-lt"/>
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                             <a:ea typeface="+mn-ea"/>
                                             <a:cs typeface="+mn-cs"/>
                                           </a:rPr>
@@ -3224,7 +3151,7 @@
                                               <a:schemeClr val="tx1"/>
                                             </a:solidFill>
                                             <a:effectLst/>
-                                            <a:latin typeface="+mn-lt"/>
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                             <a:ea typeface="+mn-ea"/>
                                             <a:cs typeface="+mn-cs"/>
                                           </a:rPr>
@@ -3236,7 +3163,7 @@
                                               <a:schemeClr val="tx1"/>
                                             </a:solidFill>
                                             <a:effectLst/>
-                                            <a:latin typeface="+mn-lt"/>
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                             <a:ea typeface="+mn-ea"/>
                                             <a:cs typeface="+mn-cs"/>
                                           </a:rPr>
@@ -3250,7 +3177,7 @@
                                               <a:schemeClr val="tx1"/>
                                             </a:solidFill>
                                             <a:effectLst/>
-                                            <a:latin typeface="+mn-lt"/>
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                             <a:ea typeface="+mn-ea"/>
                                             <a:cs typeface="+mn-cs"/>
                                           </a:rPr>
@@ -3266,7 +3193,7 @@
                                                   <a:schemeClr val="tx1"/>
                                                 </a:solidFill>
                                                 <a:effectLst/>
-                                                <a:latin typeface="+mn-lt"/>
+                                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                                 <a:ea typeface="+mn-ea"/>
                                                 <a:cs typeface="+mn-cs"/>
                                               </a:rPr>
@@ -3293,7 +3220,7 @@
                                                   <a:schemeClr val="tx1"/>
                                                 </a:solidFill>
                                                 <a:effectLst/>
-                                                <a:latin typeface="+mn-lt"/>
+                                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                                 <a:ea typeface="+mn-ea"/>
                                                 <a:cs typeface="+mn-cs"/>
                                               </a:rPr>
@@ -3313,7 +3240,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -3341,7 +3268,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="613267" y="7120463"/>
+              <a:off x="578631" y="7917099"/>
               <a:ext cx="4693227" cy="803040"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -3386,7 +3313,7 @@
                 <a:rPr lang="id-ID" sz="1400" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>𝑟^2=(𝑛 ∑24_(𝑖=1)^𝑛▒〖𝑥_𝑖 𝑦_𝑖 〗  −∑24_(𝑖=1)^𝑛▒𝑥_𝑖  ∑24_(𝑖=1)^𝑛▒𝑦_𝑖 )^2/(𝑛 ∑24_(𝑖=1)^𝑛▒〖𝑥_𝑖〗^2   −</a:t>
+                <a:t>𝑟^2=(𝑛 ∑_(𝑖=1)^𝑛▒〖𝑥_𝑖 𝑦_𝑖 〗  −∑_(𝑖=1)^𝑛▒𝑥_𝑖  ∑_(𝑖=1)^𝑛▒𝑦_𝑖 )^2/(𝑛 ∑_(𝑖=1)^𝑛▒〖𝑥_𝑖〗^2   −</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="id-ID" sz="1400" b="0" i="0">
@@ -3394,23 +3321,11 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>(∑_(𝑖=1)^𝑛▒𝑥_𝑖 )</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="id-ID" sz="1400" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>^</a:t>
+                <a:t>(∑_(𝑖=1)^𝑛▒𝑥_𝑖 )^</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="id-ID" sz="1400" b="0" i="0">
@@ -3424,71 +3339,11 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>(𝑛 ∑_(𝑖=1)^𝑛▒〖</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="id-ID" sz="1400" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>𝑦</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="id-ID" sz="1400" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>_𝑖〗^2   −(∑_(𝑖=1)^𝑛▒</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="id-ID" sz="1400" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑦</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="id-ID" sz="1400" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>_𝑖 )^2 )</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="id-ID" sz="1400" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> </a:t>
+                <a:t>(𝑛 ∑_(𝑖=1)^𝑛▒〖𝑦_𝑖〗^2   −(∑_(𝑖=1)^𝑛▒𝑦_𝑖 )^2 ) </a:t>
               </a:r>
               <a:endParaRPr lang="en-US" sz="1400"/>
             </a:p>
@@ -3506,8 +3361,8 @@
       <xdr:rowOff>117155</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3861891" cy="3800831"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="22" name="TextBox 21"/>
@@ -3644,35 +3499,11 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
-                                    <a:ea typeface="+mn-ea"/>
-                                    <a:cs typeface="+mn-cs"/>
-                                  </a:rPr>
-                                  <m:t>∗</m:t>
-                                </m:r>
-                                <m:r>
-                                  <a:rPr lang="id-ID" sz="1200" b="0" i="1">
-                                    <a:solidFill>
-                                      <a:schemeClr val="tx1"/>
-                                    </a:solidFill>
-                                    <a:effectLst/>
                                     <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
-                                  <m:t>15650</m:t>
-                                </m:r>
-                                <m:r>
-                                  <a:rPr lang="id-ID" sz="1200" b="0" i="1">
-                                    <a:solidFill>
-                                      <a:schemeClr val="tx1"/>
-                                    </a:solidFill>
-                                    <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
-                                    <a:ea typeface="+mn-ea"/>
-                                    <a:cs typeface="+mn-cs"/>
-                                  </a:rPr>
-                                  <m:t>−</m:t>
+                                  <m:t>∗15650−</m:t>
                                 </m:r>
                                 <m:sSup>
                                   <m:sSupPr>
@@ -3682,7 +3513,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="+mn-lt"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -3697,7 +3528,7 @@
                                               <a:schemeClr val="tx1"/>
                                             </a:solidFill>
                                             <a:effectLst/>
-                                            <a:latin typeface="+mn-lt"/>
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                             <a:ea typeface="+mn-ea"/>
                                             <a:cs typeface="+mn-cs"/>
                                           </a:rPr>
@@ -3726,7 +3557,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="+mn-lt"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -3761,43 +3592,7 @@
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
-                                  <m:t>12</m:t>
-                                </m:r>
-                                <m:r>
-                                  <a:rPr lang="id-ID" sz="1200" b="0" i="1">
-                                    <a:solidFill>
-                                      <a:schemeClr val="tx1"/>
-                                    </a:solidFill>
-                                    <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
-                                    <a:ea typeface="+mn-ea"/>
-                                    <a:cs typeface="+mn-cs"/>
-                                  </a:rPr>
-                                  <m:t>∗</m:t>
-                                </m:r>
-                                <m:r>
-                                  <a:rPr lang="id-ID" sz="1200" b="0" i="1">
-                                    <a:solidFill>
-                                      <a:schemeClr val="tx1"/>
-                                    </a:solidFill>
-                                    <a:effectLst/>
-                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                    <a:ea typeface="+mn-ea"/>
-                                    <a:cs typeface="+mn-cs"/>
-                                  </a:rPr>
-                                  <m:t>2512925</m:t>
-                                </m:r>
-                                <m:r>
-                                  <a:rPr lang="id-ID" sz="1200" b="0" i="1">
-                                    <a:solidFill>
-                                      <a:schemeClr val="tx1"/>
-                                    </a:solidFill>
-                                    <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
-                                    <a:ea typeface="+mn-ea"/>
-                                    <a:cs typeface="+mn-cs"/>
-                                  </a:rPr>
-                                  <m:t>−</m:t>
+                                  <m:t>12∗2512925−</m:t>
                                 </m:r>
                                 <m:sSup>
                                   <m:sSupPr>
@@ -3807,7 +3602,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="+mn-lt"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -3822,7 +3617,7 @@
                                               <a:schemeClr val="tx1"/>
                                             </a:solidFill>
                                             <a:effectLst/>
-                                            <a:latin typeface="+mn-lt"/>
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                             <a:ea typeface="+mn-ea"/>
                                             <a:cs typeface="+mn-cs"/>
                                           </a:rPr>
@@ -3851,7 +3646,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="+mn-lt"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -3879,7 +3674,6 @@
               </a:endParaRPr>
             </a:p>
             <a:p>
-              <a:pPr/>
               <a:endParaRPr lang="id-ID" sz="1200" b="0" i="1">
                 <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
               </a:endParaRPr>
@@ -3926,7 +3720,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -3940,7 +3734,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -3970,7 +3764,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -4056,7 +3850,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -4135,7 +3929,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -4149,7 +3943,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -4179,7 +3973,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -4197,31 +3991,7 @@
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
-                              <m:t>19700</m:t>
-                            </m:r>
-                            <m:r>
-                              <a:rPr lang="id-ID" sz="1200" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>∗</m:t>
-                            </m:r>
-                            <m:r>
-                              <a:rPr lang="id-ID" sz="1200" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>507075</m:t>
+                              <m:t>19700∗507075</m:t>
                             </m:r>
                           </m:e>
                         </m:rad>
@@ -4231,7 +4001,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -4310,7 +4080,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -4324,7 +4094,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -4354,7 +4124,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -4392,7 +4162,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -4474,7 +4244,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -4488,7 +4258,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -4604,7 +4374,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -4704,13 +4474,12 @@
               </a:endParaRPr>
             </a:p>
             <a:p>
-              <a:pPr/>
               <a:endParaRPr lang="id-ID" sz="1200" b="0"/>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="22" name="TextBox 21"/>
@@ -5581,9 +5350,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>207818</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>20008</xdr:rowOff>
+      <xdr:colOff>173182</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>193190</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4275786" cy="900888"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -5595,7 +5364,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5611091" y="7120463"/>
+              <a:off x="5576455" y="7917099"/>
               <a:ext cx="4275786" cy="900888"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -5690,7 +5459,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -5705,7 +5474,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -5849,7 +5618,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -5864,7 +5633,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -5880,7 +5649,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -5892,7 +5661,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -5968,7 +5737,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -5984,7 +5753,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -5996,7 +5765,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -6026,7 +5795,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -6091,7 +5860,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -6106,7 +5875,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="+mn-lt"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -6122,7 +5891,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="+mn-lt"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -6134,7 +5903,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="+mn-lt"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -6148,7 +5917,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="+mn-lt"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -6164,7 +5933,7 @@
                                               <a:schemeClr val="tx1"/>
                                             </a:solidFill>
                                             <a:effectLst/>
-                                            <a:latin typeface="+mn-lt"/>
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                             <a:ea typeface="+mn-ea"/>
                                             <a:cs typeface="+mn-cs"/>
                                           </a:rPr>
@@ -6179,7 +5948,7 @@
                                                   <a:schemeClr val="tx1"/>
                                                 </a:solidFill>
                                                 <a:effectLst/>
-                                                <a:latin typeface="+mn-lt"/>
+                                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                                 <a:ea typeface="+mn-ea"/>
                                                 <a:cs typeface="+mn-cs"/>
                                               </a:rPr>
@@ -6192,7 +5961,7 @@
                                                   <a:schemeClr val="tx1"/>
                                                 </a:solidFill>
                                                 <a:effectLst/>
-                                                <a:latin typeface="+mn-lt"/>
+                                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                                 <a:ea typeface="+mn-ea"/>
                                                 <a:cs typeface="+mn-cs"/>
                                               </a:rPr>
@@ -6206,7 +5975,7 @@
                                                   <a:schemeClr val="tx1"/>
                                                 </a:solidFill>
                                                 <a:effectLst/>
-                                                <a:latin typeface="+mn-lt"/>
+                                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                                 <a:ea typeface="+mn-ea"/>
                                                 <a:cs typeface="+mn-cs"/>
                                               </a:rPr>
@@ -6222,7 +5991,7 @@
                                               <a:schemeClr val="tx1"/>
                                             </a:solidFill>
                                             <a:effectLst/>
-                                            <a:latin typeface="+mn-lt"/>
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                             <a:ea typeface="+mn-ea"/>
                                             <a:cs typeface="+mn-cs"/>
                                           </a:rPr>
@@ -6236,7 +6005,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="+mn-lt"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -6250,7 +6019,7 @@
                                               <a:schemeClr val="tx1"/>
                                             </a:solidFill>
                                             <a:effectLst/>
-                                            <a:latin typeface="+mn-lt"/>
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                             <a:ea typeface="+mn-ea"/>
                                             <a:cs typeface="+mn-cs"/>
                                           </a:rPr>
@@ -6265,7 +6034,7 @@
                                                   <a:schemeClr val="tx1"/>
                                                 </a:solidFill>
                                                 <a:effectLst/>
-                                                <a:latin typeface="+mn-lt"/>
+                                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                                 <a:ea typeface="+mn-ea"/>
                                                 <a:cs typeface="+mn-cs"/>
                                               </a:rPr>
@@ -6281,7 +6050,7 @@
                                                       <a:schemeClr val="tx1"/>
                                                     </a:solidFill>
                                                     <a:effectLst/>
-                                                    <a:latin typeface="+mn-lt"/>
+                                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                                     <a:ea typeface="+mn-ea"/>
                                                     <a:cs typeface="+mn-cs"/>
                                                   </a:rPr>
@@ -6297,7 +6066,7 @@
                                                       <a:schemeClr val="tx1"/>
                                                     </a:solidFill>
                                                     <a:effectLst/>
-                                                    <a:latin typeface="+mn-lt"/>
+                                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                                     <a:ea typeface="+mn-ea"/>
                                                     <a:cs typeface="+mn-cs"/>
                                                   </a:rPr>
@@ -6309,7 +6078,7 @@
                                                       <a:schemeClr val="tx1"/>
                                                     </a:solidFill>
                                                     <a:effectLst/>
-                                                    <a:latin typeface="+mn-lt"/>
+                                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                                     <a:ea typeface="+mn-ea"/>
                                                     <a:cs typeface="+mn-cs"/>
                                                   </a:rPr>
@@ -6323,7 +6092,7 @@
                                                       <a:schemeClr val="tx1"/>
                                                     </a:solidFill>
                                                     <a:effectLst/>
-                                                    <a:latin typeface="+mn-lt"/>
+                                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                                     <a:ea typeface="+mn-ea"/>
                                                     <a:cs typeface="+mn-cs"/>
                                                   </a:rPr>
@@ -6339,7 +6108,7 @@
                                                           <a:schemeClr val="tx1"/>
                                                         </a:solidFill>
                                                         <a:effectLst/>
-                                                        <a:latin typeface="+mn-lt"/>
+                                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                                         <a:ea typeface="+mn-ea"/>
                                                         <a:cs typeface="+mn-cs"/>
                                                       </a:rPr>
@@ -6352,7 +6121,7 @@
                                                           <a:schemeClr val="tx1"/>
                                                         </a:solidFill>
                                                         <a:effectLst/>
-                                                        <a:latin typeface="+mn-lt"/>
+                                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                                         <a:ea typeface="+mn-ea"/>
                                                         <a:cs typeface="+mn-cs"/>
                                                       </a:rPr>
@@ -6366,7 +6135,7 @@
                                                           <a:schemeClr val="tx1"/>
                                                         </a:solidFill>
                                                         <a:effectLst/>
-                                                        <a:latin typeface="+mn-lt"/>
+                                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                                         <a:ea typeface="+mn-ea"/>
                                                         <a:cs typeface="+mn-cs"/>
                                                       </a:rPr>
@@ -6386,7 +6155,7 @@
                                               <a:schemeClr val="tx1"/>
                                             </a:solidFill>
                                             <a:effectLst/>
-                                            <a:latin typeface="+mn-lt"/>
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                             <a:ea typeface="+mn-ea"/>
                                             <a:cs typeface="+mn-cs"/>
                                           </a:rPr>
@@ -6413,7 +6182,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -6428,7 +6197,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="+mn-lt"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -6444,7 +6213,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="+mn-lt"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -6456,7 +6225,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="+mn-lt"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -6470,7 +6239,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="+mn-lt"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -6486,7 +6255,7 @@
                                               <a:schemeClr val="tx1"/>
                                             </a:solidFill>
                                             <a:effectLst/>
-                                            <a:latin typeface="+mn-lt"/>
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                             <a:ea typeface="+mn-ea"/>
                                             <a:cs typeface="+mn-cs"/>
                                           </a:rPr>
@@ -6513,7 +6282,7 @@
                                               <a:schemeClr val="tx1"/>
                                             </a:solidFill>
                                             <a:effectLst/>
-                                            <a:latin typeface="+mn-lt"/>
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                             <a:ea typeface="+mn-ea"/>
                                             <a:cs typeface="+mn-cs"/>
                                           </a:rPr>
@@ -6527,7 +6296,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="+mn-lt"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -6541,7 +6310,7 @@
                                               <a:schemeClr val="tx1"/>
                                             </a:solidFill>
                                             <a:effectLst/>
-                                            <a:latin typeface="+mn-lt"/>
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                             <a:ea typeface="+mn-ea"/>
                                             <a:cs typeface="+mn-cs"/>
                                           </a:rPr>
@@ -6556,7 +6325,7 @@
                                                   <a:schemeClr val="tx1"/>
                                                 </a:solidFill>
                                                 <a:effectLst/>
-                                                <a:latin typeface="+mn-lt"/>
+                                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                                 <a:ea typeface="+mn-ea"/>
                                                 <a:cs typeface="+mn-cs"/>
                                               </a:rPr>
@@ -6572,7 +6341,7 @@
                                                       <a:schemeClr val="tx1"/>
                                                     </a:solidFill>
                                                     <a:effectLst/>
-                                                    <a:latin typeface="+mn-lt"/>
+                                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                                     <a:ea typeface="+mn-ea"/>
                                                     <a:cs typeface="+mn-cs"/>
                                                   </a:rPr>
@@ -6588,7 +6357,7 @@
                                                       <a:schemeClr val="tx1"/>
                                                     </a:solidFill>
                                                     <a:effectLst/>
-                                                    <a:latin typeface="+mn-lt"/>
+                                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                                     <a:ea typeface="+mn-ea"/>
                                                     <a:cs typeface="+mn-cs"/>
                                                   </a:rPr>
@@ -6600,7 +6369,7 @@
                                                       <a:schemeClr val="tx1"/>
                                                     </a:solidFill>
                                                     <a:effectLst/>
-                                                    <a:latin typeface="+mn-lt"/>
+                                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                                     <a:ea typeface="+mn-ea"/>
                                                     <a:cs typeface="+mn-cs"/>
                                                   </a:rPr>
@@ -6614,7 +6383,7 @@
                                                       <a:schemeClr val="tx1"/>
                                                     </a:solidFill>
                                                     <a:effectLst/>
-                                                    <a:latin typeface="+mn-lt"/>
+                                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                                     <a:ea typeface="+mn-ea"/>
                                                     <a:cs typeface="+mn-cs"/>
                                                   </a:rPr>
@@ -6630,7 +6399,7 @@
                                                           <a:schemeClr val="tx1"/>
                                                         </a:solidFill>
                                                         <a:effectLst/>
-                                                        <a:latin typeface="+mn-lt"/>
+                                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                                         <a:ea typeface="+mn-ea"/>
                                                         <a:cs typeface="+mn-cs"/>
                                                       </a:rPr>
@@ -6657,7 +6426,7 @@
                                                           <a:schemeClr val="tx1"/>
                                                         </a:solidFill>
                                                         <a:effectLst/>
-                                                        <a:latin typeface="+mn-lt"/>
+                                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                                         <a:ea typeface="+mn-ea"/>
                                                         <a:cs typeface="+mn-cs"/>
                                                       </a:rPr>
@@ -6677,7 +6446,7 @@
                                               <a:schemeClr val="tx1"/>
                                             </a:solidFill>
                                             <a:effectLst/>
-                                            <a:latin typeface="+mn-lt"/>
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                             <a:ea typeface="+mn-ea"/>
                                             <a:cs typeface="+mn-cs"/>
                                           </a:rPr>
@@ -6709,7 +6478,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5611091" y="7120463"/>
+              <a:off x="5576455" y="7917099"/>
               <a:ext cx="4275786" cy="900888"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -6762,335 +6531,11 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="id-ID" sz="1400" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>(</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="id-ID" sz="1400" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑛∑24_(</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="id-ID" sz="1400" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑖=1</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="id-ID" sz="1400" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>)^</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="id-ID" sz="1400" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑛</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="id-ID" sz="1400" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>▒〖</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="id-ID" sz="1400" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑥_𝑖 𝑦_𝑖</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="id-ID" sz="1400" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> 〗−∑24_(𝑖=1)^</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="id-ID" sz="1400" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑛</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="id-ID" sz="1400" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>▒</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="id-ID" sz="1400" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑥_𝑖</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="id-ID" sz="1400" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>  ∑24_(𝑖=1)^</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="id-ID" sz="1400" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑛</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="id-ID" sz="1400" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>▒</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="id-ID" sz="1400" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑦</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="id-ID" sz="1400" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>_</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="id-ID" sz="1400" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑖</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="id-ID" sz="1400" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="id-ID" sz="1400" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>)/√((</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="id-ID" sz="1400" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑛∑_(𝑖=1)^𝑛▒〖〖𝑥_𝑖〗^2−(∑_(𝑖=1)^𝑛▒𝑥_𝑖 )^2 〗</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="id-ID" sz="1400" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>)(</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="id-ID" sz="1400" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑛∑_(𝑖=1)^𝑛▒〖</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="id-ID" sz="1400" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑦</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="id-ID" sz="1400" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>^2−(∑_(𝑖=1)^𝑛▒</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="id-ID" sz="1400" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑦</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="id-ID" sz="1400" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>_𝑖 )^2 〗</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="id-ID" sz="1400" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>) )</a:t>
+                <a:t> (𝑛∑_(𝑖=1)^𝑛▒〖𝑥_𝑖 𝑦_𝑖 〗−∑_(𝑖=1)^𝑛▒𝑥_𝑖  ∑_(𝑖=1)^𝑛▒𝑦_𝑖 )/√((𝑛∑_(𝑖=1)^𝑛▒〖〖𝑥_𝑖〗^2−(∑_(𝑖=1)^𝑛▒𝑥_𝑖 )^2 〗)(𝑛∑_(𝑖=1)^𝑛▒〖𝑦^2−(∑_(𝑖=1)^𝑛▒𝑦_𝑖 )^2 〗) )</a:t>
               </a:r>
               <a:endParaRPr lang="en-US" sz="1400"/>
             </a:p>
@@ -7108,8 +6553,8 @@
       <xdr:rowOff>184388</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2579681" cy="2082365"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="24" name="TextBox 23"/>
@@ -7235,7 +6680,6 @@
               </a:endParaRPr>
             </a:p>
             <a:p>
-              <a:pPr/>
               <a:endParaRPr lang="id-ID" sz="1200" b="0" i="1">
                 <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
               </a:endParaRPr>
@@ -7323,7 +6767,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -7339,7 +6783,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -7351,7 +6795,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -7365,7 +6809,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -7381,7 +6825,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -7408,7 +6852,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -7461,7 +6905,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -7477,7 +6921,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -7489,7 +6933,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -7503,7 +6947,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -7519,7 +6963,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="+mn-lt"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -7532,7 +6976,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="+mn-lt"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -7546,7 +6990,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="+mn-lt"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -7576,7 +7020,6 @@
               </a:endParaRPr>
             </a:p>
             <a:p>
-              <a:pPr/>
               <a:endParaRPr lang="id-ID" sz="1200" b="0" i="1">
                 <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
               </a:endParaRPr>
@@ -7780,7 +7223,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -7795,7 +7238,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -7811,7 +7254,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -7823,7 +7266,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -7837,7 +7280,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -7853,7 +7296,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="+mn-lt"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -7866,7 +7309,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="+mn-lt"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -7880,7 +7323,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="+mn-lt"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -7900,7 +7343,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -7913,7 +7356,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -7928,7 +7371,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -7944,7 +7387,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -7956,7 +7399,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -7970,7 +7413,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -7986,7 +7429,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="+mn-lt"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -8013,7 +7456,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="+mn-lt"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -8214,7 +7657,6 @@
               </a:endParaRPr>
             </a:p>
             <a:p>
-              <a:pPr/>
               <a:endParaRPr lang="id-ID" sz="1200" b="0" i="1">
                 <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
               </a:endParaRPr>
@@ -8222,7 +7664,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="24" name="TextBox 23"/>
@@ -8517,8 +7959,8 @@
       <xdr:rowOff>124640</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1983685" cy="1855829"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="25" name="TextBox 24"/>
@@ -8759,7 +8201,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -8771,7 +8213,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -8785,7 +8227,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -8864,7 +8306,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -8876,7 +8318,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -8890,7 +8332,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -8969,7 +8411,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -8981,7 +8423,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -9017,7 +8459,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="25" name="TextBox 24"/>
@@ -9306,8 +8748,8 @@
       <xdr:rowOff>138545</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1743234" cy="1809085"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="26" name="TextBox 25"/>
@@ -9538,7 +8980,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -9550,7 +8992,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -9564,7 +9006,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -9581,19 +9023,7 @@
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
-                          <m:t>5445</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="id-ID" sz="1100" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>−(</m:t>
+                          <m:t>5445−(</m:t>
                         </m:r>
                         <m:r>
                           <m:rPr>
@@ -9623,7 +9053,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -9689,7 +9119,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -9701,7 +9131,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -9715,7 +9145,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -9818,7 +9248,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -9830,7 +9260,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -9868,7 +9298,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="26" name="TextBox 25"/>
@@ -10269,8 +9699,8 @@
       <xdr:rowOff>80962</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2579681" cy="2082365"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="35" name="TextBox 34"/>
@@ -10396,7 +9826,6 @@
               </a:endParaRPr>
             </a:p>
             <a:p>
-              <a:pPr/>
               <a:endParaRPr lang="id-ID" sz="1200" b="0" i="1">
                 <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
               </a:endParaRPr>
@@ -10484,7 +9913,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -10500,7 +9929,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -10512,7 +9941,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -10526,7 +9955,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -10542,7 +9971,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -10569,7 +9998,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -10622,7 +10051,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -10638,7 +10067,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -10650,7 +10079,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -10664,7 +10093,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -10680,7 +10109,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="+mn-lt"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -10693,7 +10122,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="+mn-lt"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -10707,7 +10136,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="+mn-lt"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -10737,7 +10166,6 @@
               </a:endParaRPr>
             </a:p>
             <a:p>
-              <a:pPr/>
               <a:endParaRPr lang="id-ID" sz="1200" b="0" i="1">
                 <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
               </a:endParaRPr>
@@ -10941,7 +10369,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -10956,7 +10384,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -10972,7 +10400,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -10984,7 +10412,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -10998,7 +10426,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -11014,7 +10442,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="+mn-lt"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -11027,7 +10455,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="+mn-lt"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -11041,7 +10469,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="+mn-lt"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -11061,7 +10489,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -11074,7 +10502,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -11089,7 +10517,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -11105,7 +10533,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -11117,7 +10545,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -11131,7 +10559,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -11147,7 +10575,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="+mn-lt"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -11174,7 +10602,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="+mn-lt"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -11375,7 +10803,6 @@
               </a:endParaRPr>
             </a:p>
             <a:p>
-              <a:pPr/>
               <a:endParaRPr lang="id-ID" sz="1200" b="0" i="1">
                 <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
               </a:endParaRPr>
@@ -11383,7 +10810,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="35" name="TextBox 34"/>
@@ -11678,8 +11105,8 @@
       <xdr:rowOff>14287</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1749390" cy="1855829"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="37" name="TextBox 36"/>
@@ -11920,7 +11347,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -11932,7 +11359,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -11946,7 +11373,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -11963,31 +11390,7 @@
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
-                          <m:t>152352</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="id-ID" sz="1100" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>−</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="id-ID" sz="1100" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>116572</m:t>
+                          <m:t>152352−116572</m:t>
                         </m:r>
                       </m:num>
                       <m:den>
@@ -12001,31 +11404,7 @@
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
-                          <m:t>200160</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="id-ID" sz="1100" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>−</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="id-ID" sz="1100" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>148996</m:t>
+                          <m:t>200160−148996</m:t>
                         </m:r>
                       </m:den>
                     </m:f>
@@ -12073,7 +11452,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -12085,7 +11464,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -12099,7 +11478,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -12178,7 +11557,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -12190,7 +11569,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -12216,7 +11595,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="37" name="TextBox 36"/>
@@ -12543,8 +11922,8 @@
       <xdr:rowOff>195262</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1698478" cy="1812547"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="38" name="TextBox 37"/>
@@ -12660,13 +12039,7 @@
                           <a:rPr lang="id-ID" sz="1100" b="0" i="1">
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
-                          <m:t>302</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="id-ID" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>−(</m:t>
+                          <m:t>302−(</m:t>
                         </m:r>
                         <m:r>
                           <a:rPr lang="id-ID" sz="1100" b="0" i="1">
@@ -12674,7 +12047,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -12772,7 +12145,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -12784,7 +12157,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -12798,7 +12171,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -12811,7 +12184,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -12845,7 +12218,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -12859,7 +12232,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -12911,7 +12284,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -12923,7 +12296,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -12937,7 +12310,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -12974,7 +12347,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -13047,7 +12420,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -13059,7 +12432,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -13097,7 +12470,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="38" name="TextBox 37"/>
@@ -13455,8 +12828,8 @@
       <xdr:rowOff>33618</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3856903" cy="2745432"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="43" name="TextBox 42"/>
@@ -13540,7 +12913,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -13553,7 +12926,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -13567,7 +12940,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -13746,7 +13119,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -13761,7 +13134,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -13774,23 +13147,11 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
-                                    <a:ea typeface="+mn-ea"/>
-                                    <a:cs typeface="+mn-cs"/>
-                                  </a:rPr>
-                                  <m:t>8∗</m:t>
-                                </m:r>
-                                <m:r>
-                                  <a:rPr lang="id-ID" sz="1200" b="0" i="1">
-                                    <a:solidFill>
-                                      <a:schemeClr val="tx1"/>
-                                    </a:solidFill>
-                                    <a:effectLst/>
                                     <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
-                                  <m:t>14532</m:t>
+                                  <m:t>8∗14532</m:t>
                                 </m:r>
                               </m:e>
                             </m:d>
@@ -13800,7 +13161,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -13814,7 +13175,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -13829,7 +13190,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="+mn-lt"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -13842,23 +13203,11 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="+mn-lt"/>
-                                        <a:ea typeface="+mn-ea"/>
-                                        <a:cs typeface="+mn-cs"/>
-                                      </a:rPr>
-                                      <m:t>3</m:t>
-                                    </m:r>
-                                    <m:r>
-                                      <a:rPr lang="id-ID" sz="1200" b="0" i="1">
-                                        <a:solidFill>
-                                          <a:schemeClr val="tx1"/>
-                                        </a:solidFill>
-                                        <a:effectLst/>
                                         <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
-                                      <m:t>02</m:t>
+                                      <m:t>302</m:t>
                                     </m:r>
                                   </m:e>
                                 </m:d>
@@ -13870,7 +13219,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -13923,7 +13272,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -13936,7 +13285,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -13950,7 +13299,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -13964,7 +13313,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -13978,7 +13327,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -13993,7 +13342,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -14008,7 +13357,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -14073,7 +13422,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -14091,7 +13440,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -14104,7 +13453,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -14118,7 +13467,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -14132,7 +13481,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -14145,7 +13494,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -14198,7 +13547,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -14211,7 +13560,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -14225,7 +13574,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -14239,7 +13588,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -14253,7 +13602,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -14268,7 +13617,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -14283,7 +13632,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -14324,7 +13673,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -14340,35 +13689,11 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>5116</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="id-ID" sz="1200" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
-                          <m:t>4</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="id-ID" sz="1200" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>∗25052</m:t>
+                          <m:t>51164∗25052</m:t>
                         </m:r>
                       </m:den>
                     </m:f>
@@ -14415,7 +13740,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -14428,7 +13753,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -14442,7 +13767,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -14456,7 +13781,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -14470,7 +13795,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -14568,7 +13893,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -14581,7 +13906,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -14595,7 +13920,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -14609,7 +13934,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -14645,7 +13970,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="43" name="TextBox 42"/>
@@ -15448,8 +14773,8 @@
       <xdr:rowOff>134470</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3435812" cy="3485030"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="44" name="TextBox 43"/>
@@ -15580,7 +14905,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -15594,7 +14919,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="+mn-lt"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -15609,7 +14934,7 @@
                                               <a:schemeClr val="tx1"/>
                                             </a:solidFill>
                                             <a:effectLst/>
-                                            <a:latin typeface="+mn-lt"/>
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                             <a:ea typeface="+mn-ea"/>
                                             <a:cs typeface="+mn-cs"/>
                                           </a:rPr>
@@ -15622,7 +14947,7 @@
                                               <a:schemeClr val="tx1"/>
                                             </a:solidFill>
                                             <a:effectLst/>
-                                            <a:latin typeface="+mn-lt"/>
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                             <a:ea typeface="+mn-ea"/>
                                             <a:cs typeface="+mn-cs"/>
                                           </a:rPr>
@@ -15638,7 +14963,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="+mn-lt"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -15669,7 +14994,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -15683,7 +15008,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="+mn-lt"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -15698,7 +15023,7 @@
                                               <a:schemeClr val="tx1"/>
                                             </a:solidFill>
                                             <a:effectLst/>
-                                            <a:latin typeface="+mn-lt"/>
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                             <a:ea typeface="+mn-ea"/>
                                             <a:cs typeface="+mn-cs"/>
                                           </a:rPr>
@@ -15711,7 +15036,7 @@
                                               <a:schemeClr val="tx1"/>
                                             </a:solidFill>
                                             <a:effectLst/>
-                                            <a:latin typeface="+mn-lt"/>
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                             <a:ea typeface="+mn-ea"/>
                                             <a:cs typeface="+mn-cs"/>
                                           </a:rPr>
@@ -15727,7 +15052,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="+mn-lt"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -15755,7 +15080,6 @@
               </a:endParaRPr>
             </a:p>
             <a:p>
-              <a:pPr/>
               <a:endParaRPr lang="id-ID" sz="1200" b="0" i="1">
                 <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
               </a:endParaRPr>
@@ -15802,7 +15126,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -15816,7 +15140,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -15833,31 +15157,7 @@
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
-                          <m:t>152352</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="id-ID" sz="1200" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>−</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="id-ID" sz="1200" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>116572</m:t>
+                          <m:t>152352−116572</m:t>
                         </m:r>
                       </m:num>
                       <m:den>
@@ -15870,7 +15170,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -15899,23 +15199,11 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
-                                    <a:ea typeface="+mn-ea"/>
-                                    <a:cs typeface="+mn-cs"/>
-                                  </a:rPr>
-                                  <m:t>200160−14899</m:t>
-                                </m:r>
-                                <m:r>
-                                  <a:rPr lang="id-ID" sz="1200" b="0" i="1">
-                                    <a:solidFill>
-                                      <a:schemeClr val="tx1"/>
-                                    </a:solidFill>
-                                    <a:effectLst/>
                                     <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
-                                  <m:t>6</m:t>
+                                  <m:t>200160−148996</m:t>
                                 </m:r>
                               </m:e>
                             </m:d>
@@ -15952,7 +15240,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -15968,7 +15256,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -16047,7 +15335,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -16061,7 +15349,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -16091,7 +15379,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -16109,31 +15397,7 @@
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
-                              <m:t>51164</m:t>
-                            </m:r>
-                            <m:r>
-                              <a:rPr lang="id-ID" sz="1200" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>∗</m:t>
-                            </m:r>
-                            <m:r>
-                              <a:rPr lang="id-ID" sz="1200" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>25052</m:t>
+                              <m:t>51164∗25052</m:t>
                             </m:r>
                           </m:e>
                         </m:rad>
@@ -16143,7 +15407,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -16222,7 +15486,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -16236,7 +15500,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -16249,7 +15513,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -16266,7 +15530,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -16304,7 +15568,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -16320,7 +15584,6 @@
               </a:endParaRPr>
             </a:p>
             <a:p>
-              <a:pPr/>
               <a:endParaRPr lang="id-ID" sz="1200" b="0"/>
             </a:p>
             <a:p>
@@ -16365,7 +15628,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -16379,7 +15642,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -16392,7 +15655,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -16495,7 +15758,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -16588,13 +15851,12 @@
               </a:endParaRPr>
             </a:p>
             <a:p>
-              <a:pPr/>
               <a:endParaRPr lang="id-ID" sz="1200" b="0"/>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="44" name="TextBox 43"/>
@@ -17367,8 +16629,8 @@
       <xdr:rowOff>61173</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4275786" cy="900888"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="45" name="TextBox 44"/>
@@ -17471,7 +16733,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -17486,7 +16748,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -17630,7 +16892,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -17645,7 +16907,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -17661,7 +16923,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -17673,7 +16935,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -17749,7 +17011,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -17765,7 +17027,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -17777,7 +17039,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -17807,7 +17069,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -17872,7 +17134,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -17887,7 +17149,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="+mn-lt"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -17903,7 +17165,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="+mn-lt"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -17915,7 +17177,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="+mn-lt"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -17929,7 +17191,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="+mn-lt"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -17945,7 +17207,7 @@
                                               <a:schemeClr val="tx1"/>
                                             </a:solidFill>
                                             <a:effectLst/>
-                                            <a:latin typeface="+mn-lt"/>
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                             <a:ea typeface="+mn-ea"/>
                                             <a:cs typeface="+mn-cs"/>
                                           </a:rPr>
@@ -17960,7 +17222,7 @@
                                                   <a:schemeClr val="tx1"/>
                                                 </a:solidFill>
                                                 <a:effectLst/>
-                                                <a:latin typeface="+mn-lt"/>
+                                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                                 <a:ea typeface="+mn-ea"/>
                                                 <a:cs typeface="+mn-cs"/>
                                               </a:rPr>
@@ -17973,7 +17235,7 @@
                                                   <a:schemeClr val="tx1"/>
                                                 </a:solidFill>
                                                 <a:effectLst/>
-                                                <a:latin typeface="+mn-lt"/>
+                                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                                 <a:ea typeface="+mn-ea"/>
                                                 <a:cs typeface="+mn-cs"/>
                                               </a:rPr>
@@ -17987,7 +17249,7 @@
                                                   <a:schemeClr val="tx1"/>
                                                 </a:solidFill>
                                                 <a:effectLst/>
-                                                <a:latin typeface="+mn-lt"/>
+                                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                                 <a:ea typeface="+mn-ea"/>
                                                 <a:cs typeface="+mn-cs"/>
                                               </a:rPr>
@@ -18003,7 +17265,7 @@
                                               <a:schemeClr val="tx1"/>
                                             </a:solidFill>
                                             <a:effectLst/>
-                                            <a:latin typeface="+mn-lt"/>
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                             <a:ea typeface="+mn-ea"/>
                                             <a:cs typeface="+mn-cs"/>
                                           </a:rPr>
@@ -18017,7 +17279,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="+mn-lt"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -18031,7 +17293,7 @@
                                               <a:schemeClr val="tx1"/>
                                             </a:solidFill>
                                             <a:effectLst/>
-                                            <a:latin typeface="+mn-lt"/>
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                             <a:ea typeface="+mn-ea"/>
                                             <a:cs typeface="+mn-cs"/>
                                           </a:rPr>
@@ -18046,7 +17308,7 @@
                                                   <a:schemeClr val="tx1"/>
                                                 </a:solidFill>
                                                 <a:effectLst/>
-                                                <a:latin typeface="+mn-lt"/>
+                                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                                 <a:ea typeface="+mn-ea"/>
                                                 <a:cs typeface="+mn-cs"/>
                                               </a:rPr>
@@ -18062,7 +17324,7 @@
                                                       <a:schemeClr val="tx1"/>
                                                     </a:solidFill>
                                                     <a:effectLst/>
-                                                    <a:latin typeface="+mn-lt"/>
+                                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                                     <a:ea typeface="+mn-ea"/>
                                                     <a:cs typeface="+mn-cs"/>
                                                   </a:rPr>
@@ -18078,7 +17340,7 @@
                                                       <a:schemeClr val="tx1"/>
                                                     </a:solidFill>
                                                     <a:effectLst/>
-                                                    <a:latin typeface="+mn-lt"/>
+                                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                                     <a:ea typeface="+mn-ea"/>
                                                     <a:cs typeface="+mn-cs"/>
                                                   </a:rPr>
@@ -18090,7 +17352,7 @@
                                                       <a:schemeClr val="tx1"/>
                                                     </a:solidFill>
                                                     <a:effectLst/>
-                                                    <a:latin typeface="+mn-lt"/>
+                                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                                     <a:ea typeface="+mn-ea"/>
                                                     <a:cs typeface="+mn-cs"/>
                                                   </a:rPr>
@@ -18104,7 +17366,7 @@
                                                       <a:schemeClr val="tx1"/>
                                                     </a:solidFill>
                                                     <a:effectLst/>
-                                                    <a:latin typeface="+mn-lt"/>
+                                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                                     <a:ea typeface="+mn-ea"/>
                                                     <a:cs typeface="+mn-cs"/>
                                                   </a:rPr>
@@ -18120,7 +17382,7 @@
                                                           <a:schemeClr val="tx1"/>
                                                         </a:solidFill>
                                                         <a:effectLst/>
-                                                        <a:latin typeface="+mn-lt"/>
+                                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                                         <a:ea typeface="+mn-ea"/>
                                                         <a:cs typeface="+mn-cs"/>
                                                       </a:rPr>
@@ -18133,7 +17395,7 @@
                                                           <a:schemeClr val="tx1"/>
                                                         </a:solidFill>
                                                         <a:effectLst/>
-                                                        <a:latin typeface="+mn-lt"/>
+                                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                                         <a:ea typeface="+mn-ea"/>
                                                         <a:cs typeface="+mn-cs"/>
                                                       </a:rPr>
@@ -18147,7 +17409,7 @@
                                                           <a:schemeClr val="tx1"/>
                                                         </a:solidFill>
                                                         <a:effectLst/>
-                                                        <a:latin typeface="+mn-lt"/>
+                                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                                         <a:ea typeface="+mn-ea"/>
                                                         <a:cs typeface="+mn-cs"/>
                                                       </a:rPr>
@@ -18167,7 +17429,7 @@
                                               <a:schemeClr val="tx1"/>
                                             </a:solidFill>
                                             <a:effectLst/>
-                                            <a:latin typeface="+mn-lt"/>
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                             <a:ea typeface="+mn-ea"/>
                                             <a:cs typeface="+mn-cs"/>
                                           </a:rPr>
@@ -18194,7 +17456,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -18209,7 +17471,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="+mn-lt"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -18225,7 +17487,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="+mn-lt"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -18237,7 +17499,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="+mn-lt"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -18251,7 +17513,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="+mn-lt"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -18267,7 +17529,7 @@
                                               <a:schemeClr val="tx1"/>
                                             </a:solidFill>
                                             <a:effectLst/>
-                                            <a:latin typeface="+mn-lt"/>
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                             <a:ea typeface="+mn-ea"/>
                                             <a:cs typeface="+mn-cs"/>
                                           </a:rPr>
@@ -18294,7 +17556,7 @@
                                               <a:schemeClr val="tx1"/>
                                             </a:solidFill>
                                             <a:effectLst/>
-                                            <a:latin typeface="+mn-lt"/>
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                             <a:ea typeface="+mn-ea"/>
                                             <a:cs typeface="+mn-cs"/>
                                           </a:rPr>
@@ -18308,7 +17570,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="+mn-lt"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -18322,7 +17584,7 @@
                                               <a:schemeClr val="tx1"/>
                                             </a:solidFill>
                                             <a:effectLst/>
-                                            <a:latin typeface="+mn-lt"/>
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                             <a:ea typeface="+mn-ea"/>
                                             <a:cs typeface="+mn-cs"/>
                                           </a:rPr>
@@ -18337,7 +17599,7 @@
                                                   <a:schemeClr val="tx1"/>
                                                 </a:solidFill>
                                                 <a:effectLst/>
-                                                <a:latin typeface="+mn-lt"/>
+                                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                                 <a:ea typeface="+mn-ea"/>
                                                 <a:cs typeface="+mn-cs"/>
                                               </a:rPr>
@@ -18353,7 +17615,7 @@
                                                       <a:schemeClr val="tx1"/>
                                                     </a:solidFill>
                                                     <a:effectLst/>
-                                                    <a:latin typeface="+mn-lt"/>
+                                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                                     <a:ea typeface="+mn-ea"/>
                                                     <a:cs typeface="+mn-cs"/>
                                                   </a:rPr>
@@ -18369,7 +17631,7 @@
                                                       <a:schemeClr val="tx1"/>
                                                     </a:solidFill>
                                                     <a:effectLst/>
-                                                    <a:latin typeface="+mn-lt"/>
+                                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                                     <a:ea typeface="+mn-ea"/>
                                                     <a:cs typeface="+mn-cs"/>
                                                   </a:rPr>
@@ -18381,7 +17643,7 @@
                                                       <a:schemeClr val="tx1"/>
                                                     </a:solidFill>
                                                     <a:effectLst/>
-                                                    <a:latin typeface="+mn-lt"/>
+                                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                                     <a:ea typeface="+mn-ea"/>
                                                     <a:cs typeface="+mn-cs"/>
                                                   </a:rPr>
@@ -18395,7 +17657,7 @@
                                                       <a:schemeClr val="tx1"/>
                                                     </a:solidFill>
                                                     <a:effectLst/>
-                                                    <a:latin typeface="+mn-lt"/>
+                                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                                     <a:ea typeface="+mn-ea"/>
                                                     <a:cs typeface="+mn-cs"/>
                                                   </a:rPr>
@@ -18411,7 +17673,7 @@
                                                           <a:schemeClr val="tx1"/>
                                                         </a:solidFill>
                                                         <a:effectLst/>
-                                                        <a:latin typeface="+mn-lt"/>
+                                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                                         <a:ea typeface="+mn-ea"/>
                                                         <a:cs typeface="+mn-cs"/>
                                                       </a:rPr>
@@ -18438,7 +17700,7 @@
                                                           <a:schemeClr val="tx1"/>
                                                         </a:solidFill>
                                                         <a:effectLst/>
-                                                        <a:latin typeface="+mn-lt"/>
+                                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                                         <a:ea typeface="+mn-ea"/>
                                                         <a:cs typeface="+mn-cs"/>
                                                       </a:rPr>
@@ -18458,7 +17720,7 @@
                                               <a:schemeClr val="tx1"/>
                                             </a:solidFill>
                                             <a:effectLst/>
-                                            <a:latin typeface="+mn-lt"/>
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                             <a:ea typeface="+mn-ea"/>
                                             <a:cs typeface="+mn-cs"/>
                                           </a:rPr>
@@ -18482,7 +17744,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="45" name="TextBox 44"/>
@@ -18889,8 +18151,8 @@
       <xdr:rowOff>159021</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4693227" cy="803040"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="46" name="TextBox 45"/>
@@ -19392,7 +18654,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="+mn-lt"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -19408,7 +18670,7 @@
                                               <a:schemeClr val="tx1"/>
                                             </a:solidFill>
                                             <a:effectLst/>
-                                            <a:latin typeface="+mn-lt"/>
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                             <a:ea typeface="+mn-ea"/>
                                             <a:cs typeface="+mn-cs"/>
                                           </a:rPr>
@@ -19424,7 +18686,7 @@
                                               <a:schemeClr val="tx1"/>
                                             </a:solidFill>
                                             <a:effectLst/>
-                                            <a:latin typeface="+mn-lt"/>
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                             <a:ea typeface="+mn-ea"/>
                                             <a:cs typeface="+mn-cs"/>
                                           </a:rPr>
@@ -19436,7 +18698,7 @@
                                               <a:schemeClr val="tx1"/>
                                             </a:solidFill>
                                             <a:effectLst/>
-                                            <a:latin typeface="+mn-lt"/>
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                             <a:ea typeface="+mn-ea"/>
                                             <a:cs typeface="+mn-cs"/>
                                           </a:rPr>
@@ -19450,7 +18712,7 @@
                                               <a:schemeClr val="tx1"/>
                                             </a:solidFill>
                                             <a:effectLst/>
-                                            <a:latin typeface="+mn-lt"/>
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                             <a:ea typeface="+mn-ea"/>
                                             <a:cs typeface="+mn-cs"/>
                                           </a:rPr>
@@ -19466,7 +18728,7 @@
                                                   <a:schemeClr val="tx1"/>
                                                 </a:solidFill>
                                                 <a:effectLst/>
-                                                <a:latin typeface="+mn-lt"/>
+                                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                                 <a:ea typeface="+mn-ea"/>
                                                 <a:cs typeface="+mn-cs"/>
                                               </a:rPr>
@@ -19479,7 +18741,7 @@
                                                   <a:schemeClr val="tx1"/>
                                                 </a:solidFill>
                                                 <a:effectLst/>
-                                                <a:latin typeface="+mn-lt"/>
+                                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                                 <a:ea typeface="+mn-ea"/>
                                                 <a:cs typeface="+mn-cs"/>
                                               </a:rPr>
@@ -19493,7 +18755,7 @@
                                                   <a:schemeClr val="tx1"/>
                                                 </a:solidFill>
                                                 <a:effectLst/>
-                                                <a:latin typeface="+mn-lt"/>
+                                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                                 <a:ea typeface="+mn-ea"/>
                                                 <a:cs typeface="+mn-cs"/>
                                               </a:rPr>
@@ -19525,7 +18787,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -19538,7 +18800,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -19550,7 +18812,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -19565,7 +18827,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -19581,7 +18843,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -19593,7 +18855,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -19607,7 +18869,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -19623,7 +18885,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="+mn-lt"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -19638,7 +18900,7 @@
                                               <a:schemeClr val="tx1"/>
                                             </a:solidFill>
                                             <a:effectLst/>
-                                            <a:latin typeface="+mn-lt"/>
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                             <a:ea typeface="+mn-ea"/>
                                             <a:cs typeface="+mn-cs"/>
                                           </a:rPr>
@@ -19665,7 +18927,7 @@
                                               <a:schemeClr val="tx1"/>
                                             </a:solidFill>
                                             <a:effectLst/>
-                                            <a:latin typeface="+mn-lt"/>
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                             <a:ea typeface="+mn-ea"/>
                                             <a:cs typeface="+mn-cs"/>
                                           </a:rPr>
@@ -19681,7 +18943,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="+mn-lt"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -19697,7 +18959,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -19711,7 +18973,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -19726,7 +18988,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="+mn-lt"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -19742,7 +19004,7 @@
                                               <a:schemeClr val="tx1"/>
                                             </a:solidFill>
                                             <a:effectLst/>
-                                            <a:latin typeface="+mn-lt"/>
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                             <a:ea typeface="+mn-ea"/>
                                             <a:cs typeface="+mn-cs"/>
                                           </a:rPr>
@@ -19758,7 +19020,7 @@
                                               <a:schemeClr val="tx1"/>
                                             </a:solidFill>
                                             <a:effectLst/>
-                                            <a:latin typeface="+mn-lt"/>
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                             <a:ea typeface="+mn-ea"/>
                                             <a:cs typeface="+mn-cs"/>
                                           </a:rPr>
@@ -19770,7 +19032,7 @@
                                               <a:schemeClr val="tx1"/>
                                             </a:solidFill>
                                             <a:effectLst/>
-                                            <a:latin typeface="+mn-lt"/>
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                             <a:ea typeface="+mn-ea"/>
                                             <a:cs typeface="+mn-cs"/>
                                           </a:rPr>
@@ -19784,7 +19046,7 @@
                                               <a:schemeClr val="tx1"/>
                                             </a:solidFill>
                                             <a:effectLst/>
-                                            <a:latin typeface="+mn-lt"/>
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                             <a:ea typeface="+mn-ea"/>
                                             <a:cs typeface="+mn-cs"/>
                                           </a:rPr>
@@ -19800,7 +19062,7 @@
                                                   <a:schemeClr val="tx1"/>
                                                 </a:solidFill>
                                                 <a:effectLst/>
-                                                <a:latin typeface="+mn-lt"/>
+                                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                                 <a:ea typeface="+mn-ea"/>
                                                 <a:cs typeface="+mn-cs"/>
                                               </a:rPr>
@@ -19827,7 +19089,7 @@
                                                   <a:schemeClr val="tx1"/>
                                                 </a:solidFill>
                                                 <a:effectLst/>
-                                                <a:latin typeface="+mn-lt"/>
+                                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                                 <a:ea typeface="+mn-ea"/>
                                                 <a:cs typeface="+mn-cs"/>
                                               </a:rPr>
@@ -19847,7 +19109,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -19867,7 +19129,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="46" name="TextBox 45"/>
@@ -20300,8 +19562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:S19"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="U11" sqref="U11"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="U15" sqref="U15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -20699,8 +19961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:S19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="T35" sqref="T35"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -21008,16 +20270,4 @@
   </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>